--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/9.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/9.xlsx
@@ -479,13 +479,13 @@
         <v>-20.10526314043973</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.489958428664233</v>
+        <v>-9.311366325600247</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.969598844399399</v>
+        <v>-2.932233412089113</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.194298495830738</v>
+        <v>-5.94673614139654</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-19.95266896941696</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.773642446638753</v>
+        <v>-9.593243605782609</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.945443545656414</v>
+        <v>-2.922178523506667</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.151316465601352</v>
+        <v>-5.896304590850211</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-19.69788359156133</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.60065703254491</v>
+        <v>-10.42063786847117</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.776461192878256</v>
+        <v>-2.764534104989444</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.032883494095097</v>
+        <v>-5.774349789879532</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-19.33391540350159</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.33920692814952</v>
+        <v>-11.16651945366715</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.724170535328402</v>
+        <v>-2.70436188112887</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.267654668652929</v>
+        <v>-6.004289904688767</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-18.86225653120072</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.17440420333175</v>
+        <v>-11.99179276329535</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.544661971065496</v>
+        <v>-2.534135759580748</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.787284985087158</v>
+        <v>-5.531932710462133</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-18.29648780141852</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.86223451772751</v>
+        <v>-12.68311872254985</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.495133789415246</v>
+        <v>-2.495421820077764</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.877844443843378</v>
+        <v>-5.624076337862201</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-17.65074560593138</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.42068669544133</v>
+        <v>-13.23303471881087</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.393563703969135</v>
+        <v>-2.387829275324459</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.383858765322211</v>
+        <v>-5.145159899911861</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-16.94592970840802</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.41702403399953</v>
+        <v>-14.21887203049</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.184950950489072</v>
+        <v>-2.165391050043533</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.20347301676891</v>
+        <v>-4.981519206693127</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-16.21398866319602</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.17547422992356</v>
+        <v>-14.98286027051609</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.159695898307382</v>
+        <v>-2.143461442783642</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.813126007542847</v>
+        <v>-4.585097368948504</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-15.48618268548061</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.86021476084868</v>
+        <v>-15.65732334371045</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.960509602873362</v>
+        <v>-1.950991498707427</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.576548095192856</v>
+        <v>-4.348807487261031</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-14.78524929055839</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.51386107252469</v>
+        <v>-16.31327390068661</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.043750464341056</v>
+        <v>-2.014947398089259</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.049569813510541</v>
+        <v>-3.823374097314039</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-14.12124372521184</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.48811169618889</v>
+        <v>-17.28721030908261</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.837808540640705</v>
+        <v>-1.815001749090419</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.391629226502439</v>
+        <v>-3.177805736491369</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-13.51465404634342</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.0828295527743</v>
+        <v>-17.88816010182068</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.576525452828378</v>
+        <v>-1.553129507650214</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.086630939501588</v>
+        <v>-2.850720734596526</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-12.9773260284943</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.00040359743667</v>
+        <v>-18.79752527260129</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.435272597468996</v>
+        <v>-1.411850467685148</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.502229817555462</v>
+        <v>-2.273166887036623</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-12.51315186266969</v>
       </c>
       <c r="E16" t="n">
-        <v>-19.90726813837452</v>
+        <v>-19.69771273908985</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.267861321031845</v>
+        <v>-1.246926728787925</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.089756816526882</v>
+        <v>-1.867266222034589</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-12.11574394370063</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.70688053443293</v>
+        <v>-20.49822850404435</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.072013562822464</v>
+        <v>-1.038994775055631</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.588819125196759</v>
+        <v>-1.360633378968315</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-11.78744448778867</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.66290667254145</v>
+        <v>-21.45384878076477</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.9805245505644825</v>
+        <v>-0.9545232371208145</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.217102462914473</v>
+        <v>-0.9926349306930792</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-11.52593615161475</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.50280408444387</v>
+        <v>-22.28985777872319</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8708372373565015</v>
+        <v>-0.8346239276962872</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.8615286100360343</v>
+        <v>-0.6277917274026987</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-11.32551407094403</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.17563061978301</v>
+        <v>-22.95074413387068</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.643934536806547</v>
+        <v>-0.6019082446846064</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.5125140008813007</v>
+        <v>-0.2741162584363108</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-11.17376257597597</v>
       </c>
       <c r="E21" t="n">
-        <v>-23.79214716059989</v>
+        <v>-23.57024571973547</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3662860704420623</v>
+        <v>-0.3190752263947981</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1553036101476467</v>
+        <v>0.07835471866863844</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-11.06393616919968</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.45508900729353</v>
+        <v>-24.2282255836521</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1941746572847314</v>
+        <v>-0.1335572951275397</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.01178578639664554</v>
+        <v>0.1924934148428063</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-10.98799519336759</v>
       </c>
       <c r="E23" t="n">
-        <v>-24.88879772353139</v>
+        <v>-24.67116437339338</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.1252436828230437</v>
+        <v>-0.06044987605934134</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2056773638044244</v>
+        <v>0.4216610837843794</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-10.93654178923879</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.30218718575889</v>
+        <v>-25.0684633954284</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1618235769628263</v>
+        <v>-0.09506592477286506</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2206287736496756</v>
+        <v>0.4246068519237678</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-10.89452031375779</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.56569596505431</v>
+        <v>-25.34016795630274</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1356728205097152</v>
+        <v>0.2015140115007556</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2160464676550715</v>
+        <v>0.4073381044755311</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-10.84921003986578</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.57183625508708</v>
+        <v>-25.34370287807</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1184302576671619</v>
+        <v>0.1923755841172308</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06553735418658861</v>
+        <v>0.2647760188319759</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-10.79120619126232</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.55874395224535</v>
+        <v>-25.31339419699141</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.08135828369757787</v>
+        <v>-0.004571927530854477</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07721568832140827</v>
+        <v>0.2693452325237383</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-10.71421929862843</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.62135134443449</v>
+        <v>-25.38684201593349</v>
       </c>
       <c r="F28" t="n">
-        <v>0.102274355960472</v>
+        <v>0.1689534543333828</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2126609888972486</v>
+        <v>-0.02168356734499045</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-10.61141196727426</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.6969724856483</v>
+        <v>-25.44978980799651</v>
       </c>
       <c r="F29" t="n">
-        <v>0.04961711393104972</v>
+        <v>0.120433380001946</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2883868685337922</v>
+        <v>-0.1042959982762819</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-10.47824055348577</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.45827362023795</v>
+        <v>-25.22879173602817</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.06376222867829803</v>
+        <v>-0.001482144060207125</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.4498804240864832</v>
+        <v>-0.2777951955348358</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-10.31745893399729</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.00998007863441</v>
+        <v>-24.76730115316017</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.06910388823772227</v>
+        <v>-0.003171051126789788</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.9666598018550946</v>
+        <v>-0.7878320373399582</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-10.13615603381942</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.06994282564951</v>
+        <v>-24.82092722559988</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.002424789864811402</v>
+        <v>0.05506351191320776</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.112652070843182</v>
+        <v>-0.9229707872722547</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-9.939813350895456</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.66086073105694</v>
+        <v>-24.42021111252317</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.05357641706743515</v>
+        <v>0.000494793668893511</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.616875930186578</v>
+        <v>-1.429800014881154</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-9.730635371147995</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.0443572825429</v>
+        <v>-23.81192963019374</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1228085144944826</v>
+        <v>-0.08340068294088714</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.665605481363482</v>
+        <v>-1.489173608268382</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-9.518038666987943</v>
       </c>
       <c r="E35" t="n">
-        <v>-23.68541870783414</v>
+        <v>-23.45458831643167</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.3155664892332155</v>
+        <v>-0.2722702437356274</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.788293451293298</v>
+        <v>-1.598376506271219</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-9.311967311393948</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.9151985316554</v>
+        <v>-22.6981674274481</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4225960649643261</v>
+        <v>-0.3830704026851551</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.963285171075808</v>
+        <v>-1.777047163152255</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-9.119681403017328</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.12544463963679</v>
+        <v>-21.90672462836292</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3651601323976739</v>
+        <v>-0.3224006713165965</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.11757796006555</v>
+        <v>-1.926823107661601</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-8.943950425637123</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.7406094899071</v>
+        <v>-21.51746428027272</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4307656619375632</v>
+        <v>-0.3945785368830323</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.385773783778308</v>
+        <v>-2.194272670112381</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-8.791534785757692</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.09108725362623</v>
+        <v>-20.86947384342433</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.3418951102479266</v>
+        <v>-0.2883083147167418</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.567560408735675</v>
+        <v>-2.372288711851331</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-8.66916958575605</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.71070348686272</v>
+        <v>-20.49921042675748</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5520658477661552</v>
+        <v>-0.5115582627738547</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.776369546758364</v>
+        <v>-2.590681415554163</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-8.582956548304891</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.1147287692045</v>
+        <v>-19.92235047124818</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.3212223640608411</v>
+        <v>-0.2673868147756636</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.674878015129303</v>
+        <v>-2.479108810736974</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-8.535022937758299</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.58248738177982</v>
+        <v>-19.37037898344101</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.08201289883966417</v>
+        <v>-0.03165990211038571</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.759938706691998</v>
+        <v>-2.551548522360244</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-8.529357626701096</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.67460164122032</v>
+        <v>-18.46851570218871</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.05796233851941338</v>
+        <v>-0.006810711316789635</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.714770261888042</v>
+        <v>-2.49227966739575</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-8.569765477327936</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.3416251030467</v>
+        <v>-18.13500237959858</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.01700961523049424</v>
+        <v>0.02776606048820891</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.932560719660156</v>
+        <v>-2.700447282579194</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-8.661075824768195</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.78047591094748</v>
+        <v>-17.57954833923551</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.0404448373171839</v>
+        <v>0.005653160988533582</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.998218618411412</v>
+        <v>-2.762779736408652</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-8.802680488550667</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.32788809401185</v>
+        <v>-17.12620116873506</v>
       </c>
       <c r="F46" t="n">
-        <v>0.03136644376968358</v>
+        <v>0.07595882724860256</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.855826732704799</v>
+        <v>-2.644831180107542</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-8.99187607717659</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.66368938624541</v>
+        <v>-16.47437468715405</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.00662741907700547</v>
+        <v>0.04733905323658939</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.217148106530755</v>
+        <v>-2.995691803962959</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-9.223757819224998</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.00835416750281</v>
+        <v>-15.81752076128181</v>
       </c>
       <c r="F48" t="n">
-        <v>0.02784461430525927</v>
+        <v>0.07601119645996947</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.104907794268638</v>
+        <v>-2.89709367126192</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-9.496812114149249</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.3972578400624</v>
+        <v>-15.22031536715647</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1224365023367301</v>
+        <v>0.1722265300438144</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.380854261263698</v>
+        <v>-3.159253943364642</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-9.803515026383424</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.70542128099707</v>
+        <v>-14.53959417320377</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2212048349747116</v>
+        <v>0.285658241864529</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.343370998227837</v>
+        <v>-3.123040633704429</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-10.13306959879499</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.89092293660761</v>
+        <v>-13.72455904439779</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2394947820446029</v>
+        <v>0.2982530371982695</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.482804023492219</v>
+        <v>-3.244982342372265</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-10.47354810214522</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.29933414040137</v>
+        <v>-13.12588731235419</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3110965862860027</v>
+        <v>0.3717270407460362</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.4309323196333</v>
+        <v>-3.209240355614353</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-10.82188692940182</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.64647336689586</v>
+        <v>-12.48326471967091</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3747906396110001</v>
+        <v>0.4328026335026883</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.482921854217794</v>
+        <v>-3.258244845150934</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-11.17072515977264</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.2656968310471</v>
+        <v>-12.10379741410632</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2597223899350697</v>
+        <v>0.3288890258479085</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.64907626958214</v>
+        <v>-3.409526404487078</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-11.51014019672307</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.71864804910842</v>
+        <v>-11.57718571690357</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06835219929755973</v>
+        <v>0.1180767654904353</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.090457075285251</v>
+        <v>-3.864444651328534</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-11.83128474445803</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.29776978965545</v>
+        <v>-11.16227754754643</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0828061016348253</v>
+        <v>0.1491186155281678</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.196203605337873</v>
+        <v>-3.962584553430113</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-12.13339328640267</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.53213191947131</v>
+        <v>-10.39987347616419</v>
       </c>
       <c r="F57" t="n">
-        <v>0.03724488774561859</v>
+        <v>0.104185832175364</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.597089918351525</v>
+        <v>-4.353664731615312</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-12.41506917684354</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.26394918806139</v>
+        <v>-10.1224737635537</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.1254924365770364</v>
+        <v>-0.06154962949804633</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.618312541257962</v>
+        <v>-4.37564670808657</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-12.67284697244873</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.661428318982319</v>
+        <v>-9.526093184507397</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.06818742703880144</v>
+        <v>0.0005733474859438674</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.916646846112375</v>
+        <v>-4.667159923160443</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-12.90596045964316</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.329433703521829</v>
+        <v>-9.190838585639318</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1800611548213507</v>
+        <v>-0.1133558718427564</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.810900316059753</v>
+        <v>-4.571311174056166</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-13.11869319696203</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.778352492307896</v>
+        <v>-8.647154525530958</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.2046354072552705</v>
+        <v>-0.1383359856647697</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.188272853169665</v>
+        <v>-4.953423124794783</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-13.31814792026783</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.300470346282053</v>
+        <v>-8.164402042847993</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.1637350531777183</v>
+        <v>-0.1003944920294476</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.206471154119664</v>
+        <v>-4.963648213314171</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-13.50610252765527</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.852216081587035</v>
+        <v>-7.713948271275567</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1737113879431136</v>
+        <v>-0.1087604735453105</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.185143792790493</v>
+        <v>-4.943224220881079</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-13.68428951303067</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.507037517164927</v>
+        <v>-7.370497890828567</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3308975758608767</v>
+        <v>-0.2686174912427858</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.372782677118111</v>
+        <v>-5.13520974975215</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-13.8546699483236</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.14722175816577</v>
+        <v>-7.003821765140344</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2693899371104477</v>
+        <v>-0.2153580032826442</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.624613122278712</v>
+        <v>-5.391269008730628</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-14.02273751397986</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.897538450671212</v>
+        <v>-6.755696441683952</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.3844058175750112</v>
+        <v>-0.3259094084781791</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.58712985924285</v>
+        <v>-5.361876788850953</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-14.18596158584018</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.73823130969309</v>
+        <v>-6.599321976542376</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4729228770879211</v>
+        <v>-0.4098572542993266</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.67132645881799</v>
+        <v>-5.449267910319475</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-14.33870699148831</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.466579118030115</v>
+        <v>-6.328376769232855</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.4235910799802973</v>
+        <v>-0.3615597491161992</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.655000357174358</v>
+        <v>-5.443179989498072</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-14.4745610584608</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.342856856175803</v>
+        <v>-6.199627063087321</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.7090949280498177</v>
+        <v>-0.6403079689193889</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.68740380670763</v>
+        <v>-5.483726851398898</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-14.59135413497477</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.15805900156484</v>
+        <v>-6.013245039832508</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.6262337433645334</v>
+        <v>-0.5664804731948956</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.522624083141666</v>
+        <v>-5.323005741713868</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-14.68047736038443</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.066949666089268</v>
+        <v>-5.914908753188304</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6937900260278399</v>
+        <v>-0.6355292783821589</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.438728606531885</v>
+        <v>-5.248510538544447</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-14.72948068978617</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.083432875367002</v>
+        <v>-5.930920639563735</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.8211519480721511</v>
+        <v>-0.7598014169558227</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.268371561955346</v>
+        <v>-5.093131088418842</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-14.73112895655153</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.139323916198331</v>
+        <v>-5.981980620646467</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8688733919302426</v>
+        <v>-0.8018931705919721</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.084752014600137</v>
+        <v>-4.902480974437627</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-14.68512060889971</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.359012757882494</v>
+        <v>-6.2041700921734</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7454391607384492</v>
+        <v>-0.6812214152997829</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.938183684287014</v>
+        <v>-4.75732661283141</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-14.58775547889827</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.547633564923241</v>
+        <v>-6.402204264957348</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.08866697203714</v>
+        <v>-1.019395597701567</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.768062301161625</v>
+        <v>-4.588946505983971</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-14.43220237443172</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.016770052650812</v>
+        <v>-6.873618813379379</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.022236627418222</v>
+        <v>-0.9521928072149873</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.561269377776562</v>
+        <v>-4.393897378247936</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-14.22160815019062</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.451630891538743</v>
+        <v>-7.314135527094936</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.085380804023867</v>
+        <v>-1.01152712369369</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.484208083250163</v>
+        <v>-4.312293054635457</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-13.96204063976939</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.048666085727135</v>
+        <v>-7.908185676235414</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.137619092362354</v>
+        <v>-1.066279134177788</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.123698432200394</v>
+        <v>-3.948444866361049</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-13.65886975647774</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.46269707079388</v>
+        <v>-8.327008444142232</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.137147769460051</v>
+        <v>-1.054194938654875</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.973516626302954</v>
+        <v>-3.788509294846523</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-13.31320254236251</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.918427040411522</v>
+        <v>-8.789664241963147</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.276580794724434</v>
+        <v>-1.211826264869257</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.608791253738149</v>
+        <v>-3.419384908526898</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-12.93423998671206</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.805299634910046</v>
+        <v>-9.677715143717426</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.249898681532996</v>
+        <v>-1.174120432685086</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.612129790962789</v>
+        <v>-3.420445385057078</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-12.532443948178</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.56566130704897</v>
+        <v>-10.44895651951783</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.331005497637489</v>
+        <v>-1.254585725950334</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.40991917357233</v>
+        <v>-3.218797736688813</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-12.11817037377595</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.35872755168653</v>
+        <v>-11.24893550005581</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.458000835202232</v>
+        <v>-1.379316095123459</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.073420805934286</v>
+        <v>-2.875569925390122</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-11.69727706513349</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.54710278832716</v>
+        <v>-12.43721909057655</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.530322716099927</v>
+        <v>-1.452881744791117</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.922518923380552</v>
+        <v>-2.722691105107287</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-11.28028362051144</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.42411687878587</v>
+        <v>-13.3148747038745</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.597918275671759</v>
+        <v>-1.527285301840646</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.590013708109235</v>
+        <v>-2.390303720561545</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-10.87962110640984</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.56263662620521</v>
+        <v>-14.4658059543878</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.777858885928442</v>
+        <v>-1.70472528225456</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.332029880613023</v>
+        <v>-2.130002555462348</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-10.50745884428382</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.61849157348189</v>
+        <v>-15.52581116166531</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.815041025998944</v>
+        <v>-1.746803943587868</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.911622944062357</v>
+        <v>-1.7135233097642</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-10.17073312014222</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.00851445849079</v>
+        <v>-16.91445935487583</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.773224210722471</v>
+        <v>-1.713628048186934</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.620672698010679</v>
+        <v>-1.411549344719788</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-9.875465923275767</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.64101988443129</v>
+        <v>-18.5539822551395</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.998071419726274</v>
+        <v>-1.944733377949082</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.435848658794032</v>
+        <v>-1.222758337742098</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-9.629796786352285</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.21412553237889</v>
+        <v>-20.12723191841835</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.212654263302165</v>
+        <v>-2.157993898937958</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.146115996906634</v>
+        <v>-0.9318080916904198</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-9.440166745183978</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.9428331996004</v>
+        <v>-21.88031745353116</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.379921524408057</v>
+        <v>-2.33542078704903</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.28443617642947</v>
+        <v>-1.070861440172392</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-9.306851458868506</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.59754317116047</v>
+        <v>-23.54440151392591</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.484201716542405</v>
+        <v>-2.433429766122191</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.079502360047932</v>
+        <v>-0.8678914692171131</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-9.2240681257685</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.69292696407021</v>
+        <v>-25.63234887882154</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.616512529060889</v>
+        <v>-2.577549835803912</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.059628244334191</v>
+        <v>-0.8524818287724015</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-9.19027303534028</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.90251491466832</v>
+        <v>-27.84435890544537</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.470834475341003</v>
+        <v>-2.439426040823702</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.161996960253648</v>
+        <v>-0.9641198951037997</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.204278226206037</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.16809864452049</v>
+        <v>-30.11682918659229</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.927009583255264</v>
+        <v>-2.906781975364797</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.510933015591331</v>
+        <v>-1.312925027413066</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.261733807511368</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.3851884846469</v>
+        <v>-32.32598509119662</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.955171126667817</v>
+        <v>-2.949449790325982</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.761676799616068</v>
+        <v>-1.560893243235357</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-9.349736673842473</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.61736065764699</v>
+        <v>-34.55255375858044</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.263442489379099</v>
+        <v>-3.272135778466005</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.94578076217642</v>
+        <v>-1.748047712357832</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-9.466315527284522</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.12756097379397</v>
+        <v>-37.06763750368739</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.515469319082325</v>
+        <v>-3.526519222680742</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.37653061797205</v>
+        <v>-2.171334955533677</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.599193842374753</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.60402242551783</v>
+        <v>-39.55839575011441</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.458059571121357</v>
+        <v>-3.469332043868083</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.843022460525591</v>
+        <v>-2.627850463321823</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-9.752074253012593</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.16890929063469</v>
+        <v>-42.12093909302261</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.632147922007788</v>
+        <v>-3.643826256142608</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.146069994403025</v>
+        <v>-2.940154255308357</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-9.897711383209089</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.46916143841175</v>
+        <v>-44.41848113411143</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.86092282186411</v>
+        <v>-3.881909783319396</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.679515873689153</v>
+        <v>-3.490148805386427</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-10.05727971613493</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.7953887150268</v>
+        <v>-46.75095343918198</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.995590248894104</v>
+        <v>-4.025650176218707</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.992055327126838</v>
+        <v>-3.801745613019508</v>
       </c>
     </row>
   </sheetData>
